--- a/配置表/装备表.xlsx
+++ b/配置表/装备表.xlsx
@@ -1204,10 +1204,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1456,6 +1456,40 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>200012</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>200013</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/装备表.xlsx
+++ b/配置表/装备表.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260"/>
+    <workbookView windowHeight="17260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EquipDef" sheetId="1" r:id="rId1"/>
+    <sheet name="EquipLevelDef" sheetId="2" r:id="rId2"/>
+    <sheet name="EquipStarDef" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -60,6 +62,33 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>下一等级</t>
+  </si>
+  <si>
+    <t>升级消耗</t>
+  </si>
+  <si>
+    <t>NextLevel</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>EquiId</t>
+  </si>
+  <si>
+    <t>下一星级</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>NextStar</t>
   </si>
 </sst>
 </file>
@@ -1206,8 +1235,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1494,4 +1523,292 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.7788461538462" customWidth="1"/>
+    <col min="2" max="2" width="15.0576923076923" customWidth="1"/>
+    <col min="3" max="3" width="14.8942307692308" customWidth="1"/>
+    <col min="4" max="4" width="18.9038461538462" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>200001</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>200001</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>200001</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>200001</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>200001</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>200001</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>200001</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>200001</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>200001</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>200001</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>200002</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>200002</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>200002</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>200002</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>200002</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>200002</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>200002</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>200002</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>200002</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>200002</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="13.2980769230769" customWidth="1"/>
+    <col min="3" max="3" width="13.6153846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>